--- a/JupyterNotebooks/AveragedIntensites/BetaFiberA-HW30.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/BetaFiberA-HW30.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="BetaFiberA-HW30.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="BetaFiberA" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>HKL</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1187,7 +1187,7 @@
         <v>0.9849644699825476</v>
       </c>
       <c r="J15">
-        <v>0.998698169098697</v>
+        <v>0.9986981690986969</v>
       </c>
       <c r="K15">
         <v>0.9892660037337917</v>
@@ -1206,6 +1206,56 @@
       </c>
       <c r="P15">
         <v>0.9956686182756125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>1.027139640605709</v>
+      </c>
+      <c r="D16">
+        <v>0.9445305089422378</v>
+      </c>
+      <c r="E16">
+        <v>1.002723585119218</v>
+      </c>
+      <c r="F16">
+        <v>0.9843644865386793</v>
+      </c>
+      <c r="G16">
+        <v>1.027139640605709</v>
+      </c>
+      <c r="H16">
+        <v>0.9445305089422378</v>
+      </c>
+      <c r="I16">
+        <v>1.011351016872909</v>
+      </c>
+      <c r="J16">
+        <v>0.9849234737043119</v>
+      </c>
+      <c r="K16">
+        <v>1.005664761589806</v>
+      </c>
+      <c r="L16">
+        <v>0.9635070909453787</v>
+      </c>
+      <c r="M16">
+        <v>1.027139640605709</v>
+      </c>
+      <c r="N16">
+        <v>0.9736270470307277</v>
+      </c>
+      <c r="O16">
+        <v>0.989689555301461</v>
+      </c>
+      <c r="P16">
+        <v>0.9905255705397811</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AveragedIntensites/BetaFiberA-HW30.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/BetaFiberA-HW30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
@@ -516,46 +519,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1213,7 +1216,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>1.027139640605709</v>

--- a/JupyterNotebooks/AveragedIntensites/BetaFiberA-HW30.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/BetaFiberA-HW30.xlsx
@@ -1190,7 +1190,7 @@
         <v>0.9849644699825476</v>
       </c>
       <c r="J15">
-        <v>0.9986981690986969</v>
+        <v>0.998698169098697</v>
       </c>
       <c r="K15">
         <v>0.9892660037337917</v>

--- a/JupyterNotebooks/AveragedIntensites/BetaFiberA-HW30.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/BetaFiberA-HW30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
@@ -458,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,46 +528,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -919,46 +928,46 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.060048000000001</v>
+        <v>1.027139640605709</v>
       </c>
       <c r="D10">
-        <v>0.8355719999999995</v>
+        <v>0.9445305089422378</v>
       </c>
       <c r="E10">
-        <v>1.047087999999999</v>
+        <v>1.002723585119218</v>
       </c>
       <c r="F10">
-        <v>0.9629040000000013</v>
+        <v>0.9843644865386793</v>
       </c>
       <c r="G10">
-        <v>1.060048000000001</v>
+        <v>1.027139640605709</v>
       </c>
       <c r="H10">
-        <v>0.8355719999999995</v>
+        <v>0.9445305089422378</v>
       </c>
       <c r="I10">
-        <v>1.050015999999998</v>
+        <v>1.011351016872909</v>
       </c>
       <c r="J10">
-        <v>0.9743560000000003</v>
+        <v>0.9849234737043119</v>
       </c>
       <c r="K10">
-        <v>1.022519999999999</v>
+        <v>1.005664761589806</v>
       </c>
       <c r="L10">
-        <v>0.9045520000000009</v>
+        <v>0.9635070909453787</v>
       </c>
       <c r="M10">
-        <v>1.060048000000001</v>
+        <v>1.027139640605709</v>
       </c>
       <c r="N10">
-        <v>0.9413299999999992</v>
+        <v>0.9736270470307277</v>
       </c>
       <c r="O10">
-        <v>0.9764030000000001</v>
+        <v>0.989689555301461</v>
       </c>
       <c r="P10">
-        <v>0.9821319999999999</v>
+        <v>0.9905255705397811</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -969,46 +978,46 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.1</v>
+        <v>1.06952138450653</v>
       </c>
       <c r="D11">
-        <v>0.77</v>
+        <v>0.8545695964511686</v>
       </c>
       <c r="E11">
-        <v>1.06</v>
+        <v>1.037720511284058</v>
       </c>
       <c r="F11">
-        <v>0.95</v>
+        <v>0.964607202315401</v>
       </c>
       <c r="G11">
-        <v>1.1</v>
+        <v>1.06952138450653</v>
       </c>
       <c r="H11">
-        <v>0.77</v>
+        <v>0.8545695964511686</v>
       </c>
       <c r="I11">
-        <v>1.07</v>
+        <v>1.046213705848453</v>
       </c>
       <c r="J11">
-        <v>0.96</v>
+        <v>0.973420257073854</v>
       </c>
       <c r="K11">
-        <v>1.04</v>
+        <v>1.022279546371987</v>
       </c>
       <c r="L11">
-        <v>0.87</v>
+        <v>0.905381742923465</v>
       </c>
       <c r="M11">
-        <v>1.1</v>
+        <v>1.06952138450653</v>
       </c>
       <c r="N11">
-        <v>0.915</v>
+        <v>0.9461450538676134</v>
       </c>
       <c r="O11">
-        <v>0.97</v>
+        <v>0.9816046736392895</v>
       </c>
       <c r="P11">
-        <v>0.9775</v>
+        <v>0.9842142433468647</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1019,46 +1028,46 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.056408986828798</v>
+        <v>1.069098302754471</v>
       </c>
       <c r="D12">
-        <v>0.8637200795648003</v>
+        <v>0.8551118185074116</v>
       </c>
       <c r="E12">
-        <v>1.0325399273472</v>
+        <v>1.037605103762144</v>
       </c>
       <c r="F12">
-        <v>0.9685999912959987</v>
+        <v>0.9647279220353012</v>
       </c>
       <c r="G12">
-        <v>1.056408986828798</v>
+        <v>1.069098302754471</v>
       </c>
       <c r="H12">
-        <v>0.8637200795648003</v>
+        <v>0.8551118185074116</v>
       </c>
       <c r="I12">
-        <v>1.037833666457602</v>
+        <v>1.046021112678542</v>
       </c>
       <c r="J12">
-        <v>0.9740902438912006</v>
+        <v>0.9735470773462164</v>
       </c>
       <c r="K12">
-        <v>1.021234507776</v>
+        <v>1.022117768670891</v>
       </c>
       <c r="L12">
-        <v>0.9218742659072036</v>
+        <v>0.9057357111738825</v>
       </c>
       <c r="M12">
-        <v>1.056399226879999</v>
+        <v>1.069098302754471</v>
       </c>
       <c r="N12">
-        <v>0.9481300034560001</v>
+        <v>0.9463584611347777</v>
       </c>
       <c r="O12">
-        <v>0.9803172462591994</v>
+        <v>0.981635786764832</v>
       </c>
       <c r="P12">
-        <v>0.9845377086336005</v>
+        <v>0.9842456021161075</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1069,46 +1078,46 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9947066764352194</v>
+        <v>1.069438146469196</v>
       </c>
       <c r="D13">
-        <v>0.9942114503031864</v>
+        <v>0.8546784179401092</v>
       </c>
       <c r="E13">
-        <v>0.9940420254672179</v>
+        <v>1.037693534019703</v>
       </c>
       <c r="F13">
-        <v>0.9938657476590198</v>
+        <v>0.9646337203556069</v>
       </c>
       <c r="G13">
-        <v>0.9947066764352194</v>
+        <v>1.069438146469196</v>
       </c>
       <c r="H13">
-        <v>0.9942114503031864</v>
+        <v>0.8546784179401092</v>
       </c>
       <c r="I13">
-        <v>0.9937674776198598</v>
+        <v>1.046179152124324</v>
       </c>
       <c r="J13">
-        <v>0.9945025076966275</v>
+        <v>0.9734574574172539</v>
       </c>
       <c r="K13">
-        <v>0.9942840764862741</v>
+        <v>1.022238245074014</v>
       </c>
       <c r="L13">
-        <v>0.9937822702444505</v>
+        <v>0.9054483696346373</v>
       </c>
       <c r="M13">
-        <v>0.9947066764352194</v>
+        <v>1.069438146469196</v>
       </c>
       <c r="N13">
-        <v>0.9941267378852021</v>
+        <v>0.9461859759799061</v>
       </c>
       <c r="O13">
-        <v>0.9942064749661608</v>
+        <v>0.9816109546961537</v>
       </c>
       <c r="P13">
-        <v>0.9941452789889819</v>
+        <v>0.9842208803793554</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1119,46 +1128,46 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9898247732663007</v>
+        <v>1.060048000000001</v>
       </c>
       <c r="D14">
-        <v>1.000440016616962</v>
+        <v>0.8355719999999995</v>
       </c>
       <c r="E14">
-        <v>0.9919262984649203</v>
+        <v>1.047087999999999</v>
       </c>
       <c r="F14">
-        <v>0.9956326231626454</v>
+        <v>0.9629040000000013</v>
       </c>
       <c r="G14">
-        <v>0.9898247732663007</v>
+        <v>1.060048000000001</v>
       </c>
       <c r="H14">
-        <v>1.000440016616962</v>
+        <v>0.8355719999999995</v>
       </c>
       <c r="I14">
-        <v>0.9911878322374496</v>
+        <v>1.050015999999998</v>
       </c>
       <c r="J14">
-        <v>0.9963115379682754</v>
+        <v>0.9743560000000003</v>
       </c>
       <c r="K14">
-        <v>0.9930930095830671</v>
+        <v>1.022519999999999</v>
       </c>
       <c r="L14">
-        <v>0.9977686341456802</v>
+        <v>0.9045520000000009</v>
       </c>
       <c r="M14">
-        <v>0.9898247732663007</v>
+        <v>1.060048000000001</v>
       </c>
       <c r="N14">
-        <v>0.996183157540941</v>
+        <v>0.9413299999999992</v>
       </c>
       <c r="O14">
-        <v>0.9944559278777071</v>
+        <v>0.9764030000000001</v>
       </c>
       <c r="P14">
-        <v>0.9945230906806626</v>
+        <v>0.9821319999999999</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1169,46 +1178,46 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9788280942718661</v>
+        <v>1.1</v>
       </c>
       <c r="D15">
-        <v>1.016001911870168</v>
+        <v>0.77</v>
       </c>
       <c r="E15">
-        <v>0.9896039602709358</v>
+        <v>1.06</v>
       </c>
       <c r="F15">
-        <v>0.9990957641612837</v>
+        <v>0.95</v>
       </c>
       <c r="G15">
-        <v>0.9788280942718661</v>
+        <v>1.1</v>
       </c>
       <c r="H15">
-        <v>1.016001911870168</v>
+        <v>0.77</v>
       </c>
       <c r="I15">
-        <v>0.9849644699825476</v>
+        <v>1.07</v>
       </c>
       <c r="J15">
-        <v>0.998698169098697</v>
+        <v>0.96</v>
       </c>
       <c r="K15">
-        <v>0.9892660037337917</v>
+        <v>1.04</v>
       </c>
       <c r="L15">
-        <v>1.00889057281561</v>
+        <v>0.87</v>
       </c>
       <c r="M15">
-        <v>0.9788280942718661</v>
+        <v>1.1</v>
       </c>
       <c r="N15">
-        <v>1.002802936070552</v>
+        <v>0.915</v>
       </c>
       <c r="O15">
-        <v>0.9958824326435632</v>
+        <v>0.97</v>
       </c>
       <c r="P15">
-        <v>0.9956686182756125</v>
+        <v>0.9775</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1219,46 +1228,196 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.027139640605709</v>
+        <v>1.056408986828798</v>
       </c>
       <c r="D16">
-        <v>0.9445305089422378</v>
+        <v>0.8637200795648003</v>
       </c>
       <c r="E16">
-        <v>1.002723585119218</v>
+        <v>1.0325399273472</v>
       </c>
       <c r="F16">
-        <v>0.9843644865386793</v>
+        <v>0.9685999912959987</v>
       </c>
       <c r="G16">
-        <v>1.027139640605709</v>
+        <v>1.056408986828798</v>
       </c>
       <c r="H16">
-        <v>0.9445305089422378</v>
+        <v>0.8637200795648003</v>
       </c>
       <c r="I16">
-        <v>1.011351016872909</v>
+        <v>1.037833666457602</v>
       </c>
       <c r="J16">
-        <v>0.9849234737043119</v>
+        <v>0.9740902438912006</v>
       </c>
       <c r="K16">
-        <v>1.005664761589806</v>
+        <v>1.021234507776</v>
       </c>
       <c r="L16">
-        <v>0.9635070909453787</v>
+        <v>0.9218742659072036</v>
       </c>
       <c r="M16">
-        <v>1.027139640605709</v>
+        <v>1.056399226879999</v>
       </c>
       <c r="N16">
-        <v>0.9736270470307277</v>
+        <v>0.9481300034560001</v>
       </c>
       <c r="O16">
-        <v>0.989689555301461</v>
+        <v>0.9803172462591994</v>
       </c>
       <c r="P16">
-        <v>0.9905255705397811</v>
+        <v>0.9845377086336005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.9947066764352194</v>
+      </c>
+      <c r="D17">
+        <v>0.9942114503031864</v>
+      </c>
+      <c r="E17">
+        <v>0.9940420254672179</v>
+      </c>
+      <c r="F17">
+        <v>0.9938657476590198</v>
+      </c>
+      <c r="G17">
+        <v>0.9947066764352194</v>
+      </c>
+      <c r="H17">
+        <v>0.9942114503031864</v>
+      </c>
+      <c r="I17">
+        <v>0.9937674776198598</v>
+      </c>
+      <c r="J17">
+        <v>0.9945025076966275</v>
+      </c>
+      <c r="K17">
+        <v>0.9942840764862741</v>
+      </c>
+      <c r="L17">
+        <v>0.9937822702444505</v>
+      </c>
+      <c r="M17">
+        <v>0.9947066764352194</v>
+      </c>
+      <c r="N17">
+        <v>0.9941267378852021</v>
+      </c>
+      <c r="O17">
+        <v>0.9942064749661608</v>
+      </c>
+      <c r="P17">
+        <v>0.9941452789889819</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>0.9898247732663007</v>
+      </c>
+      <c r="D18">
+        <v>1.000440016616962</v>
+      </c>
+      <c r="E18">
+        <v>0.9919262984649203</v>
+      </c>
+      <c r="F18">
+        <v>0.9956326231626454</v>
+      </c>
+      <c r="G18">
+        <v>0.9898247732663007</v>
+      </c>
+      <c r="H18">
+        <v>1.000440016616962</v>
+      </c>
+      <c r="I18">
+        <v>0.9911878322374496</v>
+      </c>
+      <c r="J18">
+        <v>0.9963115379682754</v>
+      </c>
+      <c r="K18">
+        <v>0.9930930095830671</v>
+      </c>
+      <c r="L18">
+        <v>0.9977686341456802</v>
+      </c>
+      <c r="M18">
+        <v>0.9898247732663007</v>
+      </c>
+      <c r="N18">
+        <v>0.996183157540941</v>
+      </c>
+      <c r="O18">
+        <v>0.9944559278777071</v>
+      </c>
+      <c r="P18">
+        <v>0.9945230906806626</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.9788280942718661</v>
+      </c>
+      <c r="D19">
+        <v>1.016001911870168</v>
+      </c>
+      <c r="E19">
+        <v>0.9896039602709358</v>
+      </c>
+      <c r="F19">
+        <v>0.9990957641612837</v>
+      </c>
+      <c r="G19">
+        <v>0.9788280942718661</v>
+      </c>
+      <c r="H19">
+        <v>1.016001911870168</v>
+      </c>
+      <c r="I19">
+        <v>0.9849644699825476</v>
+      </c>
+      <c r="J19">
+        <v>0.9986981690986969</v>
+      </c>
+      <c r="K19">
+        <v>0.9892660037337917</v>
+      </c>
+      <c r="L19">
+        <v>1.00889057281561</v>
+      </c>
+      <c r="M19">
+        <v>0.9788280942718661</v>
+      </c>
+      <c r="N19">
+        <v>1.002802936070552</v>
+      </c>
+      <c r="O19">
+        <v>0.9958824326435632</v>
+      </c>
+      <c r="P19">
+        <v>0.9956686182756125</v>
       </c>
     </row>
   </sheetData>
